--- a/BackTest/2020-01-23 BackTest DAC.xlsx
+++ b/BackTest/2020-01-23 BackTest DAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -5478,11 +5478,9 @@
         <v>-807524.2174304805</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>1.918</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
         <v>1.914</v>
       </c>
@@ -5519,11 +5517,9 @@
         <v>-807524.2174304805</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>1.917</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
         <v>1.914</v>
       </c>
@@ -5601,11 +5597,9 @@
         <v>-765084.6758304805</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1.917</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
         <v>1.914</v>
       </c>
@@ -5642,11 +5636,9 @@
         <v>-805952.9593304805</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1.918</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
         <v>1.914</v>
       </c>
@@ -5970,9 +5962,11 @@
         <v>-763099.6466304805</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1.918</v>
+      </c>
       <c r="J157" t="n">
         <v>1.914</v>
       </c>
@@ -6009,9 +6003,11 @@
         <v>-763099.6466304805</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1.918</v>
+      </c>
       <c r="J158" t="n">
         <v>1.914</v>
       </c>
@@ -6950,11 +6946,9 @@
         <v>-709835.8852304806</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1.925</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
         <v>1.914</v>
       </c>
@@ -6991,11 +6985,9 @@
         <v>-728155.4145304806</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>1.926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
         <v>1.914</v>
       </c>
@@ -7032,11 +7024,9 @@
         <v>-688855.9809304806</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1.921</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
         <v>1.914</v>
       </c>
@@ -7073,11 +7063,9 @@
         <v>-624951.4402304806</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>1.922</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
         <v>1.914</v>
       </c>
@@ -7114,11 +7102,9 @@
         <v>-606012.0312304806</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>1.923</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
         <v>1.914</v>
       </c>
@@ -7155,11 +7141,9 @@
         <v>-606012.0312304806</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>1.924</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
         <v>1.914</v>
       </c>
@@ -7196,11 +7180,9 @@
         <v>-671609.0433304807</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>1.924</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
         <v>1.914</v>
       </c>
@@ -7237,11 +7219,9 @@
         <v>-671609.0433304807</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>1.921</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
         <v>1.914</v>
       </c>
@@ -7278,11 +7258,9 @@
         <v>-718018.7581304807</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>1.921</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
         <v>1.914</v>
       </c>
@@ -7319,11 +7297,9 @@
         <v>-762385.1538304806</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>1.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
         <v>1.914</v>
       </c>
@@ -7360,11 +7336,9 @@
         <v>-724448.8071304807</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>1.919</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
         <v>1.914</v>
       </c>
@@ -7401,11 +7375,9 @@
         <v>-693743.5669304807</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>1.924</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
         <v>1.914</v>
       </c>
@@ -7442,11 +7414,9 @@
         <v>-741045.9204304806</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>1.925</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
         <v>1.914</v>
       </c>
@@ -7483,11 +7453,9 @@
         <v>-761903.1326304806</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>1.923</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
         <v>1.914</v>
       </c>
@@ -7524,11 +7492,9 @@
         <v>-703495.7801304805</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>1.918</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
         <v>1.914</v>
       </c>
@@ -7682,11 +7648,9 @@
         <v>-717818.4776304805</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>1.918</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
         <v>1.914</v>
       </c>
@@ -7723,11 +7687,9 @@
         <v>-736018.9784304806</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>1.924</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
         <v>1.914</v>
       </c>
@@ -7764,11 +7726,9 @@
         <v>-700730.4579304806</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>1.918</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
         <v>1.914</v>
       </c>
@@ -7805,11 +7765,9 @@
         <v>-655855.5349304806</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>1.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
         <v>1.914</v>
       </c>
@@ -7846,11 +7804,9 @@
         <v>-655855.5349304806</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>1.925</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
         <v>1.914</v>
       </c>
@@ -7887,11 +7843,9 @@
         <v>-655855.5349304806</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>1.925</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
         <v>1.914</v>
       </c>
@@ -8357,11 +8311,9 @@
         <v>-525302.9097304805</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>1.919</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
         <v>1.914</v>
       </c>
@@ -8671,11 +8623,9 @@
         <v>-561628.0861304804</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>1.918</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
         <v>1.914</v>
       </c>
@@ -13119,11 +13069,9 @@
         <v>-466310.9022304803</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>1.919</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
         <v>1.914</v>
       </c>
@@ -25757,11 +25705,9 @@
         <v>-239045.8538304809</v>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
-      </c>
-      <c r="I662" t="n">
-        <v>1.927</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
       <c r="J662" t="n">
         <v>1.914</v>
       </c>
@@ -25798,11 +25744,9 @@
         <v>-221057.4740304809</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
-      </c>
-      <c r="I663" t="n">
-        <v>1.926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
       <c r="J663" t="n">
         <v>1.914</v>
       </c>
@@ -25878,11 +25822,9 @@
         <v>-217393.9211304809</v>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
-      </c>
-      <c r="I665" t="n">
-        <v>1.926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I665" t="inlineStr"/>
       <c r="J665" t="n">
         <v>1.914</v>
       </c>
@@ -28649,11 +28591,9 @@
         <v>-610961.350830481</v>
       </c>
       <c r="H736" t="n">
-        <v>1</v>
-      </c>
-      <c r="I736" t="n">
-        <v>1.915</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I736" t="inlineStr"/>
       <c r="J736" t="n">
         <v>1.914</v>
       </c>
@@ -28768,11 +28708,9 @@
         <v>-615171.045230481</v>
       </c>
       <c r="H739" t="n">
-        <v>1</v>
-      </c>
-      <c r="I739" t="n">
-        <v>1.916</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I739" t="inlineStr"/>
       <c r="J739" t="n">
         <v>1.914</v>
       </c>
@@ -30642,7 +30580,7 @@
         <v>2974565.018269519</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="n">
@@ -30650,11 +30588,11 @@
       </c>
       <c r="K787" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L787" t="n">
-        <v>1</v>
+        <v>1.020078369905956</v>
       </c>
       <c r="M787" t="inlineStr"/>
     </row>
@@ -30684,14 +30622,8 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J788" t="inlineStr"/>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -30723,14 +30655,8 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J789" t="inlineStr"/>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -30762,14 +30688,8 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J790" t="inlineStr"/>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -30801,14 +30721,8 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J791" t="inlineStr"/>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -30840,14 +30754,8 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J792" t="inlineStr"/>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -30879,14 +30787,8 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J793" t="inlineStr"/>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -30918,14 +30820,8 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J794" t="inlineStr"/>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -30957,14 +30853,8 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J795" t="inlineStr"/>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -30996,14 +30886,8 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J796" t="inlineStr"/>
+      <c r="K796" t="inlineStr"/>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -31035,14 +30919,8 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J797" t="inlineStr"/>
+      <c r="K797" t="inlineStr"/>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -31074,14 +30952,8 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J798" t="inlineStr"/>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -31113,14 +30985,8 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J799" t="inlineStr"/>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -31152,14 +31018,8 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J800" t="inlineStr"/>
+      <c r="K800" t="inlineStr"/>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -31191,14 +31051,8 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J801" t="inlineStr"/>
+      <c r="K801" t="inlineStr"/>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -31230,14 +31084,8 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J802" t="inlineStr"/>
+      <c r="K802" t="inlineStr"/>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -31269,14 +31117,8 @@
         <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J803" t="inlineStr"/>
+      <c r="K803" t="inlineStr"/>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -31308,14 +31150,8 @@
         <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J804" t="inlineStr"/>
+      <c r="K804" t="inlineStr"/>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -31347,14 +31183,8 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J805" t="inlineStr"/>
+      <c r="K805" t="inlineStr"/>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -31386,14 +31216,8 @@
         <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J806" t="inlineStr"/>
+      <c r="K806" t="inlineStr"/>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -31425,14 +31249,8 @@
         <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
-      <c r="J807" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K807" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J807" t="inlineStr"/>
+      <c r="K807" t="inlineStr"/>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -31464,14 +31282,8 @@
         <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K808" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J808" t="inlineStr"/>
+      <c r="K808" t="inlineStr"/>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -31503,14 +31315,8 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K809" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J809" t="inlineStr"/>
+      <c r="K809" t="inlineStr"/>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -31539,17 +31345,11 @@
         <v>2251743.650356924</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K810" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J810" t="inlineStr"/>
+      <c r="K810" t="inlineStr"/>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -31578,17 +31378,11 @@
         <v>2232351.884056924</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K811" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J811" t="inlineStr"/>
+      <c r="K811" t="inlineStr"/>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -31617,17 +31411,11 @@
         <v>2295762.265256925</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K812" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J812" t="inlineStr"/>
+      <c r="K812" t="inlineStr"/>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -31656,17 +31444,11 @@
         <v>2337805.595656924</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K813" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J813" t="inlineStr"/>
+      <c r="K813" t="inlineStr"/>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -31695,17 +31477,11 @@
         <v>2295656.025156925</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J814" t="inlineStr"/>
+      <c r="K814" t="inlineStr"/>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -31734,17 +31510,11 @@
         <v>2245181.922856925</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J815" t="inlineStr"/>
+      <c r="K815" t="inlineStr"/>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -31773,17 +31543,11 @@
         <v>2206358.215456924</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J816" t="inlineStr"/>
+      <c r="K816" t="inlineStr"/>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -31812,17 +31576,11 @@
         <v>2159015.685456925</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J817" t="inlineStr"/>
+      <c r="K817" t="inlineStr"/>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -31854,14 +31612,8 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J818" t="inlineStr"/>
+      <c r="K818" t="inlineStr"/>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -31893,14 +31645,8 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J819" t="inlineStr"/>
+      <c r="K819" t="inlineStr"/>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -31932,14 +31678,8 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J820" t="inlineStr"/>
+      <c r="K820" t="inlineStr"/>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -31971,16 +31711,10 @@
         <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K821" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J821" t="inlineStr"/>
+      <c r="K821" t="inlineStr"/>
       <c r="L821" t="n">
-        <v>1.001792058516197</v>
+        <v>1</v>
       </c>
       <c r="M821" t="inlineStr"/>
     </row>
@@ -32007,7 +31741,7 @@
         <v>2159524.974756924</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -32040,7 +31774,7 @@
         <v>2159524.974756924</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -32073,7 +31807,7 @@
         <v>2124645.340156924</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -32106,7 +31840,7 @@
         <v>2168522.417556924</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -32139,7 +31873,7 @@
         <v>2123973.163356924</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -32172,7 +31906,7 @@
         <v>2134883.223356924</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -32238,7 +31972,7 @@
         <v>2128946.376756924</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -32370,7 +32104,7 @@
         <v>2134704.020856924</v>
       </c>
       <c r="H833" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -32403,7 +32137,7 @@
         <v>2095776.383056924</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -32436,7 +32170,7 @@
         <v>2138397.560556924</v>
       </c>
       <c r="H835" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -32469,7 +32203,7 @@
         <v>2103534.955656924</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -32502,7 +32236,7 @@
         <v>2056085.914156924</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -32535,7 +32269,7 @@
         <v>2056085.914156924</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -32568,7 +32302,7 @@
         <v>2121322.494356924</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -32601,7 +32335,7 @@
         <v>2098317.496556924</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -32634,7 +32368,7 @@
         <v>2023811.019056924</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -32667,7 +32401,7 @@
         <v>2058001.488156924</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -32700,7 +32434,7 @@
         <v>2024026.297256924</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -32733,7 +32467,7 @@
         <v>1996312.505056924</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -32766,7 +32500,7 @@
         <v>2024499.206356924</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -32799,7 +32533,7 @@
         <v>1977239.863256924</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -32832,7 +32566,7 @@
         <v>1977239.863256924</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -32865,7 +32599,7 @@
         <v>2153619.312856924</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -32898,7 +32632,7 @@
         <v>2110314.827856924</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -32931,7 +32665,7 @@
         <v>2158885.198356924</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -33096,7 +32830,7 @@
         <v>2059397.576256924</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -33129,7 +32863,7 @@
         <v>1872381.445456924</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -33162,7 +32896,7 @@
         <v>1839094.102856924</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -33195,7 +32929,7 @@
         <v>1881080.773956924</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -33228,7 +32962,7 @@
         <v>1919712.904556924</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -33261,7 +32995,7 @@
         <v>1874925.594656924</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -41115,7 +40849,7 @@
         <v>1510836.349980501</v>
       </c>
       <c r="H1098" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
@@ -41280,7 +41014,7 @@
         <v>1569394.7581805</v>
       </c>
       <c r="H1103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
@@ -41511,7 +41245,7 @@
         <v>1557097.7195805</v>
       </c>
       <c r="H1110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
@@ -41544,7 +41278,7 @@
         <v>1521308.1224805</v>
       </c>
       <c r="H1111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
@@ -41577,7 +41311,7 @@
         <v>1521308.1224805</v>
       </c>
       <c r="H1112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
@@ -41775,7 +41509,7 @@
         <v>1550573.234380501</v>
       </c>
       <c r="H1118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
@@ -41808,7 +41542,7 @@
         <v>1514233.409980501</v>
       </c>
       <c r="H1119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
@@ -41841,7 +41575,7 @@
         <v>1379431.763080501</v>
       </c>
       <c r="H1120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
@@ -43139,6 +42873,6 @@
       <c r="M1159" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest DAC.xlsx
+++ b/BackTest/2020-01-23 BackTest DAC.xlsx
@@ -3883,14 +3883,10 @@
         <v>-784793.4270000003</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="J106" t="n">
-        <v>1.914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
@@ -3920,19 +3916,11 @@
         <v>-740660.1333000002</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1.913</v>
-      </c>
-      <c r="J107" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3961,19 +3949,11 @@
         <v>-776519.9760000003</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1.915</v>
-      </c>
-      <c r="J108" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4002,19 +3982,11 @@
         <v>-776519.9760000003</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="J109" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4043,19 +4015,11 @@
         <v>-739136.2120000003</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="J110" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4084,19 +4048,11 @@
         <v>-767708.0970000003</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="J111" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4130,12 +4086,10 @@
       <c r="I112" t="n">
         <v>1.913</v>
       </c>
-      <c r="J112" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L112" t="n">
@@ -4171,9 +4125,7 @@
       <c r="I113" t="n">
         <v>1.913</v>
       </c>
-      <c r="J113" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4212,9 +4164,7 @@
       <c r="I114" t="n">
         <v>1.914</v>
       </c>
-      <c r="J114" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4253,9 +4203,7 @@
       <c r="I115" t="n">
         <v>1.915</v>
       </c>
-      <c r="J115" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4294,9 +4242,7 @@
       <c r="I116" t="n">
         <v>1.914</v>
       </c>
-      <c r="J116" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4335,9 +4281,7 @@
       <c r="I117" t="n">
         <v>1.915</v>
       </c>
-      <c r="J117" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4376,9 +4320,7 @@
       <c r="I118" t="n">
         <v>1.915</v>
       </c>
-      <c r="J118" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4417,9 +4359,7 @@
       <c r="I119" t="n">
         <v>1.912</v>
       </c>
-      <c r="J119" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4458,9 +4398,7 @@
       <c r="I120" t="n">
         <v>1.913</v>
       </c>
-      <c r="J120" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4499,9 +4437,7 @@
       <c r="I121" t="n">
         <v>1.912</v>
       </c>
-      <c r="J121" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4540,9 +4476,7 @@
       <c r="I122" t="n">
         <v>1.913</v>
       </c>
-      <c r="J122" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4581,9 +4515,7 @@
       <c r="I123" t="n">
         <v>1.913</v>
       </c>
-      <c r="J123" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4622,9 +4554,7 @@
       <c r="I124" t="n">
         <v>1.914</v>
       </c>
-      <c r="J124" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4663,9 +4593,7 @@
       <c r="I125" t="n">
         <v>1.912</v>
       </c>
-      <c r="J125" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4704,9 +4632,7 @@
       <c r="I126" t="n">
         <v>1.916</v>
       </c>
-      <c r="J126" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4745,9 +4671,7 @@
       <c r="I127" t="n">
         <v>1.913</v>
       </c>
-      <c r="J127" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4786,9 +4710,7 @@
       <c r="I128" t="n">
         <v>1.912</v>
       </c>
-      <c r="J128" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4827,9 +4749,7 @@
       <c r="I129" t="n">
         <v>1.912</v>
       </c>
-      <c r="J129" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4868,9 +4788,7 @@
       <c r="I130" t="n">
         <v>1.912</v>
       </c>
-      <c r="J130" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4909,9 +4827,7 @@
       <c r="I131" t="n">
         <v>1.915</v>
       </c>
-      <c r="J131" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4950,9 +4866,7 @@
       <c r="I132" t="n">
         <v>1.915</v>
       </c>
-      <c r="J132" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4991,9 +4905,7 @@
       <c r="I133" t="n">
         <v>1.914</v>
       </c>
-      <c r="J133" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5032,9 +4944,7 @@
       <c r="I134" t="n">
         <v>1.914</v>
       </c>
-      <c r="J134" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5073,9 +4983,7 @@
       <c r="I135" t="n">
         <v>1.914</v>
       </c>
-      <c r="J135" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5114,9 +5022,7 @@
       <c r="I136" t="n">
         <v>1.912</v>
       </c>
-      <c r="J136" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5155,9 +5061,7 @@
       <c r="I137" t="n">
         <v>1.912</v>
       </c>
-      <c r="J137" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5196,9 +5100,7 @@
       <c r="I138" t="n">
         <v>1.912</v>
       </c>
-      <c r="J138" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5237,9 +5139,7 @@
       <c r="I139" t="n">
         <v>1.914</v>
       </c>
-      <c r="J139" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5278,9 +5178,7 @@
       <c r="I140" t="n">
         <v>1.915</v>
       </c>
-      <c r="J140" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5319,9 +5217,7 @@
       <c r="I141" t="n">
         <v>1.916</v>
       </c>
-      <c r="J141" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5360,9 +5256,7 @@
       <c r="I142" t="n">
         <v>1.918</v>
       </c>
-      <c r="J142" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5401,9 +5295,7 @@
       <c r="I143" t="n">
         <v>1.917</v>
       </c>
-      <c r="J143" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5437,14 +5329,10 @@
         <v>-760921.6729304806</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1.918</v>
-      </c>
-      <c r="J144" t="n">
-        <v>1.914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5481,9 +5369,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5520,9 +5406,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5556,14 +5440,10 @@
         <v>-807524.2174304805</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="J147" t="n">
-        <v>1.914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5600,9 +5480,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5639,9 +5517,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5675,14 +5551,10 @@
         <v>-805952.9593304805</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="J150" t="n">
-        <v>1.914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5716,14 +5588,10 @@
         <v>-805952.9593304805</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="J151" t="n">
-        <v>1.914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5757,14 +5625,10 @@
         <v>-805952.9593304805</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="J152" t="n">
-        <v>1.914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5798,14 +5662,10 @@
         <v>-805952.9593304805</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="J153" t="n">
-        <v>1.914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5839,14 +5699,10 @@
         <v>-805952.9593304805</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="J154" t="n">
-        <v>1.914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5880,14 +5736,10 @@
         <v>-805952.9593304805</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="J155" t="n">
-        <v>1.914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5921,14 +5773,10 @@
         <v>-763099.6466304805</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="J156" t="n">
-        <v>1.914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5962,14 +5810,10 @@
         <v>-763099.6466304805</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1.918</v>
-      </c>
-      <c r="J157" t="n">
-        <v>1.914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6003,14 +5847,10 @@
         <v>-763099.6466304805</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1.918</v>
-      </c>
-      <c r="J158" t="n">
-        <v>1.914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6044,14 +5884,10 @@
         <v>-785946.5433304806</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1.918</v>
-      </c>
-      <c r="J159" t="n">
-        <v>1.914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6085,14 +5921,10 @@
         <v>-785946.5433304806</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="J160" t="n">
-        <v>1.914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6126,14 +5958,10 @@
         <v>-785946.5433304806</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="J161" t="n">
-        <v>1.914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6167,14 +5995,10 @@
         <v>-748813.9973304806</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="J162" t="n">
-        <v>1.914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6208,14 +6032,10 @@
         <v>-748813.9973304806</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1.918</v>
-      </c>
-      <c r="J163" t="n">
-        <v>1.914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6249,14 +6069,10 @@
         <v>-789313.0893304806</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1.918</v>
-      </c>
-      <c r="J164" t="n">
-        <v>1.914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6290,14 +6106,10 @@
         <v>-744148.2284304806</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="J165" t="n">
-        <v>1.914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6331,14 +6143,10 @@
         <v>-744148.2284304806</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>1.918</v>
-      </c>
-      <c r="J166" t="n">
-        <v>1.914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6372,14 +6180,10 @@
         <v>-774767.3428304805</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1.918</v>
-      </c>
-      <c r="J167" t="n">
-        <v>1.914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6413,14 +6217,10 @@
         <v>-731299.0451304805</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="J168" t="n">
-        <v>1.914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6454,14 +6254,10 @@
         <v>-773945.6507304806</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1.918</v>
-      </c>
-      <c r="J169" t="n">
-        <v>1.914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6495,14 +6291,10 @@
         <v>-773945.6507304806</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="J170" t="n">
-        <v>1.914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6536,14 +6328,10 @@
         <v>-773945.6507304806</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="J171" t="n">
-        <v>1.914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6577,14 +6365,10 @@
         <v>-773945.6507304806</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="J172" t="n">
-        <v>1.914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6618,14 +6402,10 @@
         <v>-732882.3720304805</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="J173" t="n">
-        <v>1.914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6664,9 +6444,7 @@
       <c r="I174" t="n">
         <v>1.918</v>
       </c>
-      <c r="J174" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6705,9 +6483,7 @@
       <c r="I175" t="n">
         <v>1.917</v>
       </c>
-      <c r="J175" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6746,9 +6522,7 @@
       <c r="I176" t="n">
         <v>1.917</v>
       </c>
-      <c r="J176" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6787,9 +6561,7 @@
       <c r="I177" t="n">
         <v>1.918</v>
       </c>
-      <c r="J177" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6828,9 +6600,7 @@
       <c r="I178" t="n">
         <v>1.917</v>
       </c>
-      <c r="J178" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6869,9 +6639,7 @@
       <c r="I179" t="n">
         <v>1.918</v>
       </c>
-      <c r="J179" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6910,9 +6678,7 @@
       <c r="I180" t="n">
         <v>1.917</v>
       </c>
-      <c r="J180" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6949,9 +6715,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6988,9 +6752,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7027,9 +6789,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7066,9 +6826,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7105,9 +6863,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7144,9 +6900,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7183,9 +6937,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7222,9 +6974,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7261,9 +7011,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7300,9 +7048,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7339,9 +7085,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7378,9 +7122,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7417,9 +7159,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7456,9 +7196,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7495,9 +7233,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7534,9 +7270,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7573,9 +7307,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7612,9 +7344,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7651,9 +7381,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7690,9 +7418,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7729,9 +7455,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7768,9 +7492,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7807,9 +7529,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7846,9 +7566,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7885,9 +7603,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7924,9 +7640,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7963,9 +7677,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8002,9 +7714,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8041,9 +7751,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8080,9 +7788,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8119,9 +7825,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8158,9 +7862,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8197,9 +7899,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8236,9 +7936,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8275,9 +7973,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8314,9 +8010,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8353,9 +8047,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8392,9 +8084,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8431,9 +8121,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8470,9 +8158,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8509,9 +8195,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8548,9 +8232,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8587,9 +8269,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8626,9 +8306,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8665,9 +8343,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8704,9 +8380,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8743,9 +8417,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8782,9 +8454,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8821,9 +8491,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8860,9 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8899,9 +8565,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8938,9 +8602,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8977,9 +8639,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9016,9 +8676,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9055,9 +8713,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9094,9 +8750,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9133,9 +8787,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9172,9 +8824,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9211,9 +8861,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9250,9 +8898,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9289,9 +8935,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9328,9 +8972,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9367,9 +9009,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9406,9 +9046,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9445,9 +9083,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9484,9 +9120,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9523,9 +9157,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9562,9 +9194,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9601,9 +9231,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9640,9 +9268,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9679,9 +9305,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9718,9 +9342,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9757,9 +9379,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9796,9 +9416,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9835,9 +9453,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9874,9 +9490,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9913,9 +9527,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9952,9 +9564,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9991,9 +9601,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10030,9 +9638,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10069,9 +9675,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10108,9 +9712,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10147,9 +9749,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10186,9 +9786,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10225,9 +9823,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10264,9 +9860,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10303,9 +9897,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10342,9 +9934,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10381,9 +9971,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10420,9 +10008,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10459,9 +10045,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10498,9 +10082,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10537,9 +10119,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10576,9 +10156,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10615,9 +10193,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10654,9 +10230,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10693,9 +10267,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10732,9 +10304,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10771,9 +10341,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10810,9 +10378,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10849,9 +10415,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10888,9 +10452,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10927,9 +10489,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10966,9 +10526,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11005,9 +10563,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11044,9 +10600,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11083,9 +10637,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11122,9 +10674,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11161,9 +10711,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11200,9 +10748,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11239,9 +10785,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11278,9 +10822,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11317,9 +10859,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11356,9 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11395,9 +10933,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11434,9 +10970,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11473,9 +11007,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11512,9 +11044,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11551,9 +11081,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11590,9 +11118,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11629,9 +11155,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11668,9 +11192,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11707,9 +11229,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11746,9 +11266,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11785,9 +11303,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11824,9 +11340,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11863,9 +11377,7 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11902,9 +11414,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11941,9 +11451,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11980,9 +11488,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12019,9 +11525,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12058,9 +11562,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12097,9 +11599,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12136,9 +11636,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12175,9 +11673,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12214,9 +11710,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12253,9 +11747,7 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12292,9 +11784,7 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12331,9 +11821,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12370,9 +11858,7 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12409,9 +11895,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12448,9 +11932,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12487,9 +11969,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12526,9 +12006,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12565,9 +12043,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12604,9 +12080,7 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12643,9 +12117,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12682,9 +12154,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12721,9 +12191,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12760,9 +12228,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12799,9 +12265,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12838,9 +12302,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12877,9 +12339,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12916,9 +12376,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12955,9 +12413,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12994,9 +12450,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13033,9 +12487,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13072,9 +12524,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13111,9 +12561,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13150,9 +12598,7 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13189,9 +12635,7 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13228,9 +12672,7 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13267,9 +12709,7 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13306,9 +12746,7 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13345,9 +12783,7 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13384,9 +12820,7 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13423,9 +12857,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13462,9 +12894,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13501,9 +12931,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13540,9 +12968,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13579,9 +13005,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13618,9 +13042,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13657,9 +13079,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13696,9 +13116,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13735,9 +13153,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13774,9 +13190,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13813,9 +13227,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13852,9 +13264,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13891,9 +13301,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13930,9 +13338,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13969,9 +13375,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14008,9 +13412,7 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14047,9 +13449,7 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14086,9 +13486,7 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14125,9 +13523,7 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14164,9 +13560,7 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14203,9 +13597,7 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14242,9 +13634,7 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14281,9 +13671,7 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14320,9 +13708,7 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14359,9 +13745,7 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14398,9 +13782,7 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14437,9 +13819,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14476,9 +13856,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14515,9 +13893,7 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14554,9 +13930,7 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14593,9 +13967,7 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14632,9 +14004,7 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14671,9 +14041,7 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14710,9 +14078,7 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14749,9 +14115,7 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14788,9 +14152,7 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14827,9 +14189,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14866,9 +14226,7 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14905,9 +14263,7 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14944,9 +14300,7 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14983,9 +14337,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15022,9 +14374,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15061,9 +14411,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15100,9 +14448,7 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15139,9 +14485,7 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15178,9 +14522,7 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15217,9 +14559,7 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15256,9 +14596,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15295,9 +14633,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15334,9 +14670,7 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15373,9 +14707,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15412,9 +14744,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15451,9 +14781,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15490,9 +14818,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15529,9 +14855,7 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15568,9 +14892,7 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15607,9 +14929,7 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15646,9 +14966,7 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15685,9 +15003,7 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15724,9 +15040,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15763,9 +15077,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15802,9 +15114,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15841,9 +15151,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15880,9 +15188,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15919,9 +15225,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15958,9 +15262,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15997,9 +15299,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16036,9 +15336,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16075,9 +15373,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16114,9 +15410,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16153,9 +15447,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16192,9 +15484,7 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16231,9 +15521,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16270,9 +15558,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16309,9 +15595,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16348,9 +15632,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16387,9 +15669,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16426,9 +15706,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16465,9 +15743,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16504,9 +15780,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16543,9 +15817,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16582,9 +15854,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16621,9 +15891,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16660,9 +15928,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16699,9 +15965,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16738,9 +16002,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16777,9 +16039,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16816,9 +16076,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16855,9 +16113,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16894,9 +16150,7 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16933,9 +16187,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16972,9 +16224,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17011,9 +16261,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17050,9 +16298,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17089,9 +16335,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17128,9 +16372,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17167,9 +16409,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17206,9 +16446,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17245,9 +16483,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17284,9 +16520,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17323,9 +16557,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17362,9 +16594,7 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17401,9 +16631,7 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17440,9 +16668,7 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17479,9 +16705,7 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17518,9 +16742,7 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17557,9 +16779,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17596,9 +16816,7 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17635,9 +16853,7 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17674,9 +16890,7 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17713,9 +16927,7 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17752,9 +16964,7 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17791,9 +17001,7 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17830,9 +17038,7 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17869,9 +17075,7 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17908,9 +17112,7 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17947,9 +17149,7 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17986,9 +17186,7 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18025,9 +17223,7 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18064,9 +17260,7 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18103,9 +17297,7 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18142,9 +17334,7 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18181,9 +17371,7 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18220,9 +17408,7 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18259,9 +17445,7 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18298,9 +17482,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18337,9 +17519,7 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18376,9 +17556,7 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18415,9 +17593,7 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18454,9 +17630,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18493,9 +17667,7 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18532,9 +17704,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18571,9 +17741,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18610,9 +17778,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18649,9 +17815,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18688,9 +17852,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18727,9 +17889,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18766,9 +17926,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18805,9 +17963,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18844,9 +18000,7 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18883,9 +18037,7 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18922,9 +18074,7 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18961,9 +18111,7 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19000,9 +18148,7 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19039,9 +18185,7 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19078,9 +18222,7 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19117,9 +18259,7 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19156,9 +18296,7 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19195,9 +18333,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19234,9 +18370,7 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19273,9 +18407,7 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19312,9 +18444,7 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19351,9 +18481,7 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19390,9 +18518,7 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19429,9 +18555,7 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19468,9 +18592,7 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19507,9 +18629,7 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19546,9 +18666,7 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19585,9 +18703,7 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19624,9 +18740,7 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19663,9 +18777,7 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19702,9 +18814,7 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19741,9 +18851,7 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19780,9 +18888,7 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19819,9 +18925,7 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19858,9 +18962,7 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19897,9 +18999,7 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19936,9 +19036,7 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19975,9 +19073,7 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20014,9 +19110,7 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20053,9 +19147,7 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20092,9 +19184,7 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20131,9 +19221,7 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20170,9 +19258,7 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20209,9 +19295,7 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20248,9 +19332,7 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20287,9 +19369,7 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20326,9 +19406,7 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20365,9 +19443,7 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20404,9 +19480,7 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20443,9 +19517,7 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20482,9 +19554,7 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20521,9 +19591,7 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20560,9 +19628,7 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20599,9 +19665,7 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20638,9 +19702,7 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20677,9 +19739,7 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20716,9 +19776,7 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20755,9 +19813,7 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20794,9 +19850,7 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20833,9 +19887,7 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20872,9 +19924,7 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20911,9 +19961,7 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20950,9 +19998,7 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20989,9 +20035,7 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21028,9 +20072,7 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21067,9 +20109,7 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21106,9 +20146,7 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21145,9 +20183,7 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21184,9 +20220,7 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21223,9 +20257,7 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21262,9 +20294,7 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21301,9 +20331,7 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21340,9 +20368,7 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21379,9 +20405,7 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21418,9 +20442,7 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21457,9 +20479,7 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21496,9 +20516,7 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21535,9 +20553,7 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21574,9 +20590,7 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21613,9 +20627,7 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21652,9 +20664,7 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21691,9 +20701,7 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21730,9 +20738,7 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21769,9 +20775,7 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21808,9 +20812,7 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21847,9 +20849,7 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21886,9 +20886,7 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21925,9 +20923,7 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21964,9 +20960,7 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22003,9 +20997,7 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22042,9 +21034,7 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22081,9 +21071,7 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22120,9 +21108,7 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22159,9 +21145,7 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22198,9 +21182,7 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22237,9 +21219,7 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22276,9 +21256,7 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22315,9 +21293,7 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22354,9 +21330,7 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22393,9 +21367,7 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22432,9 +21404,7 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22471,9 +21441,7 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22510,9 +21478,7 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22549,9 +21515,7 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22588,9 +21552,7 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22627,9 +21589,7 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22666,9 +21626,7 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22705,9 +21663,7 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22744,9 +21700,7 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22783,9 +21737,7 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22822,9 +21774,7 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22861,9 +21811,7 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22900,9 +21848,7 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22939,9 +21885,7 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22978,9 +21922,7 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23017,9 +21959,7 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23056,9 +21996,7 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23095,9 +22033,7 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23134,9 +22070,7 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23173,9 +22107,7 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23212,9 +22144,7 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23251,9 +22181,7 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23290,9 +22218,7 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23329,9 +22255,7 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23368,9 +22292,7 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23407,9 +22329,7 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23446,9 +22366,7 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23485,9 +22403,7 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23524,9 +22440,7 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23563,9 +22477,7 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23602,9 +22514,7 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23641,9 +22551,7 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23680,9 +22588,7 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23719,9 +22625,7 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23758,9 +22662,7 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23797,9 +22699,7 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23836,9 +22736,7 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23875,9 +22773,7 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23914,9 +22810,7 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23953,9 +22847,7 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23992,9 +22884,7 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24031,9 +22921,7 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24070,9 +22958,7 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24109,9 +22995,7 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24148,9 +23032,7 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24187,9 +23069,7 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24226,9 +23106,7 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24265,9 +23143,7 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24304,9 +23180,7 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24343,9 +23217,7 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24382,9 +23254,7 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24421,9 +23291,7 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24460,9 +23328,7 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24499,9 +23365,7 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24538,9 +23402,7 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24577,9 +23439,7 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24616,9 +23476,7 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24655,9 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24694,9 +23550,7 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24733,9 +23587,7 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24772,9 +23624,7 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24811,9 +23661,7 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24850,9 +23698,7 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24889,9 +23735,7 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24928,9 +23772,7 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24967,9 +23809,7 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25006,9 +23846,7 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25045,9 +23883,7 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25084,9 +23920,7 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25123,9 +23957,7 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25162,9 +23994,7 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25201,9 +24031,7 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25240,9 +24068,7 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25279,9 +24105,7 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25318,9 +24142,7 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25357,9 +24179,7 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25396,9 +24216,7 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25432,20 +24250,16 @@
         <v>-238798.9979304808</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>1.914</v>
-      </c>
+      <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L655" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L655" t="inlineStr"/>
       <c r="M655" t="inlineStr"/>
     </row>
     <row r="656">
@@ -25471,17 +24285,11 @@
         <v>-238798.9979304808</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -25513,14 +24321,8 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -25552,14 +24354,8 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -25591,14 +24387,8 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -25630,14 +24420,8 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -25669,14 +24453,8 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -25708,14 +24486,8 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -25747,14 +24519,8 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -25786,14 +24552,8 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -25825,14 +24585,8 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -25864,14 +24618,8 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -25903,14 +24651,8 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -25942,14 +24684,8 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -25981,14 +24717,8 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -26020,14 +24750,8 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -26059,14 +24783,8 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -26098,14 +24816,8 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -26137,14 +24849,8 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -26176,14 +24882,8 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -26215,14 +24915,8 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -26254,14 +24948,8 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -26293,14 +24981,8 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -26332,14 +25014,8 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -26371,14 +25047,8 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -26410,14 +25080,8 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -26449,14 +25113,8 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -26488,14 +25146,8 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -26527,14 +25179,8 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -26566,14 +25212,8 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -26605,14 +25245,8 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -26644,14 +25278,8 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -26683,14 +25311,8 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -26722,14 +25344,8 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -26761,14 +25377,8 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -26800,14 +25410,8 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -26839,14 +25443,8 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -26878,14 +25476,8 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -26917,14 +25509,8 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -26956,14 +25542,8 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -26995,14 +25575,8 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -27034,14 +25608,8 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J696" t="inlineStr"/>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -27073,14 +25641,8 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J697" t="inlineStr"/>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -27112,14 +25674,8 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -27151,14 +25707,8 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -27190,14 +25740,8 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J700" t="inlineStr"/>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -27229,14 +25773,8 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -27268,14 +25806,8 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -27307,14 +25839,8 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -27346,14 +25872,8 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -27385,14 +25905,8 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J705" t="inlineStr"/>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -27424,14 +25938,8 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J706" t="inlineStr"/>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -27463,14 +25971,8 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J707" t="inlineStr"/>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -27502,14 +26004,8 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -27541,14 +26037,8 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -27580,14 +26070,8 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -27619,14 +26103,8 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J711" t="inlineStr"/>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -27658,14 +26136,8 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J712" t="inlineStr"/>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -27697,14 +26169,8 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J713" t="inlineStr"/>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -27736,14 +26202,8 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J714" t="inlineStr"/>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -27775,14 +26235,8 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J715" t="inlineStr"/>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -27814,14 +26268,8 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J716" t="inlineStr"/>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -27853,14 +26301,8 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J717" t="inlineStr"/>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -27892,14 +26334,8 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J718" t="inlineStr"/>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -27931,14 +26367,8 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J719" t="inlineStr"/>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -27970,14 +26400,8 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J720" t="inlineStr"/>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -28009,14 +26433,8 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J721" t="inlineStr"/>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -28048,14 +26466,8 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J722" t="inlineStr"/>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -28087,14 +26499,8 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J723" t="inlineStr"/>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -28126,14 +26532,8 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J724" t="inlineStr"/>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -28165,14 +26565,8 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J725" t="inlineStr"/>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -28204,14 +26598,8 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J726" t="inlineStr"/>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -28243,14 +26631,8 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J727" t="inlineStr"/>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -28282,14 +26664,8 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -28321,14 +26697,8 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -28360,14 +26730,8 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -28399,14 +26763,8 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -28438,14 +26796,8 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -28477,14 +26829,8 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J733" t="inlineStr"/>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -28516,14 +26862,8 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -28555,14 +26895,8 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J735" t="inlineStr"/>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -28594,14 +26928,8 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J736" t="inlineStr"/>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -28633,14 +26961,8 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -28672,14 +26994,8 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -28711,14 +27027,8 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -28750,14 +27060,8 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J740" t="inlineStr"/>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -28789,14 +27093,8 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J741" t="inlineStr"/>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -28828,14 +27126,8 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J742" t="inlineStr"/>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -28867,14 +27159,8 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J743" t="inlineStr"/>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -28906,14 +27192,8 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -28945,14 +27225,8 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J745" t="inlineStr"/>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -28984,14 +27258,8 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J746" t="inlineStr"/>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -29023,14 +27291,8 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J747" t="inlineStr"/>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -29062,14 +27324,8 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J748" t="inlineStr"/>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -29101,14 +27357,8 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J749" t="inlineStr"/>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -29140,14 +27390,8 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J750" t="inlineStr"/>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -29179,14 +27423,8 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J751" t="inlineStr"/>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -29218,14 +27456,8 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J752" t="inlineStr"/>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -29257,14 +27489,8 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J753" t="inlineStr"/>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -29296,14 +27522,8 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J754" t="inlineStr"/>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -29335,14 +27555,8 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J755" t="inlineStr"/>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -29374,14 +27588,8 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J756" t="inlineStr"/>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -29413,14 +27621,8 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J757" t="inlineStr"/>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -29452,14 +27654,8 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J758" t="inlineStr"/>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -29491,14 +27687,8 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J759" t="inlineStr"/>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -29530,14 +27720,8 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J760" t="inlineStr"/>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -29569,14 +27753,8 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J761" t="inlineStr"/>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -29608,14 +27786,8 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J762" t="inlineStr"/>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -29647,14 +27819,8 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J763" t="inlineStr"/>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -29686,14 +27852,8 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J764" t="inlineStr"/>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -29725,14 +27885,8 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J765" t="inlineStr"/>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -29764,14 +27918,8 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J766" t="inlineStr"/>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -29803,14 +27951,8 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J767" t="inlineStr"/>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -29842,14 +27984,8 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J768" t="inlineStr"/>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -29881,14 +28017,8 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J769" t="inlineStr"/>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -29920,14 +28050,8 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J770" t="inlineStr"/>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -29959,14 +28083,8 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J771" t="inlineStr"/>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -29998,14 +28116,8 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J772" t="inlineStr"/>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -30037,14 +28149,8 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J773" t="inlineStr"/>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -30076,14 +28182,8 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J774" t="inlineStr"/>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -30115,14 +28215,8 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J775" t="inlineStr"/>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -30154,14 +28248,8 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J776" t="inlineStr"/>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -30193,14 +28281,8 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J777" t="inlineStr"/>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -30232,14 +28314,8 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J778" t="inlineStr"/>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -30271,14 +28347,8 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J779" t="inlineStr"/>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -30310,14 +28380,8 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J780" t="inlineStr"/>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -30349,14 +28413,8 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J781" t="inlineStr"/>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -30388,14 +28446,8 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J782" t="inlineStr"/>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -30427,14 +28479,8 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J783" t="inlineStr"/>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -30466,14 +28512,8 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J784" t="inlineStr"/>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -30505,14 +28545,8 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J785" t="inlineStr"/>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -30544,14 +28578,8 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J786" t="inlineStr"/>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -30580,19 +28608,13 @@
         <v>2974565.018269519</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="n">
-        <v>1.914</v>
-      </c>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J787" t="inlineStr"/>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
-        <v>1.020078369905956</v>
+        <v>1</v>
       </c>
       <c r="M787" t="inlineStr"/>
     </row>
@@ -30883,7 +28905,7 @@
         <v>2710914.206756924</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -31015,7 +29037,7 @@
         <v>2870133.659256924</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -31081,7 +29103,7 @@
         <v>2776080.427056924</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -31345,7 +29367,7 @@
         <v>2251743.650356924</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -31378,7 +29400,7 @@
         <v>2232351.884056924</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -31411,7 +29433,7 @@
         <v>2295762.265256925</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -31444,7 +29466,7 @@
         <v>2337805.595656924</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -31477,7 +29499,7 @@
         <v>2295656.025156925</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -31510,7 +29532,7 @@
         <v>2245181.922856925</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -31543,7 +29565,7 @@
         <v>2206358.215456924</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -31576,7 +29598,7 @@
         <v>2159015.685456925</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -31708,7 +29730,7 @@
         <v>2112587.097756925</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -31939,7 +29961,7 @@
         <v>2091979.240956924</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
